--- a/biology/Zoologie/Engoulevent_d'Arizona/Engoulevent_d'Arizona.xlsx
+++ b/biology/Zoologie/Engoulevent_d'Arizona/Engoulevent_d'Arizona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Arizona</t>
+          <t>Engoulevent_d'Arizona</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antrostomus arizonae
 L'Engoulevent d'Arizona, Engoulevent de l'Arizona ou Engoulevent du Mexique (Antrostomus arizonae) est une espèce d'oiseaux de la famille des Caprimulgidae, autrefois considérée comme une sous-espèce de l'Engoulevent bois-pourri (A. vociferus).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Arizona</t>
+          <t>Engoulevent_d'Arizona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans le Sud-Ouest des États-Unis et au Mexique.
 Ces oiseaux vivent surtout la nuit, capturant des insectes en vol. Ils nichent au sol, dans des lieux ombragés par des feuilles mortes, et pondent deux œufs.
